--- a/FinalCodeElk/Baseline1/network_inputs_adults.xlsx
+++ b/FinalCodeElk/Baseline1/network_inputs_adults.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Initial Pop" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,32 +13,45 @@
     <sheet name="Summer &amp; Fall" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
-  <si>
-    <t>Node</t>
-  </si>
-  <si>
-    <t>N0 - initial female population at the start of winter</t>
-  </si>
-  <si>
-    <t>Node attributes ALPHA</t>
-  </si>
-  <si>
-    <t>Adult survival</t>
-  </si>
-  <si>
-    <t>Reproduction</t>
-  </si>
-  <si>
-    <t>Carrying Capacity</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
+  <si>
+    <t xml:space="preserve">Node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N0 - initial female population at the start of winter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Node attributes ALPHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adult survival</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reproduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carrying Capacity</t>
   </si>
   <si>
     <r>
-      <t>Tell code to </t>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Tell code to</t>
     </r>
     <r>
       <rPr>
@@ -50,80 +63,80 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>STOP</t>
+      <t xml:space="preserve">STOP</t>
     </r>
   </si>
   <si>
-    <t>Variable Names</t>
-  </si>
-  <si>
-    <t>s0</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>STOP</t>
-  </si>
-  <si>
-    <t>Destination</t>
-  </si>
-  <si>
-    <t>Transitions pij</t>
-  </si>
-  <si>
-    <t>Origin</t>
-  </si>
-  <si>
-    <t>Edge survival sij</t>
-  </si>
-  <si>
-    <t>s33*p33_t-1</t>
-  </si>
-  <si>
-    <t>NOTES</t>
-  </si>
-  <si>
-    <t>Parameters to calculate Reproduction r</t>
-  </si>
-  <si>
-    <t>approx from Middleton et al. 2013</t>
-  </si>
-  <si>
-    <t>Relative Abundance</t>
-  </si>
-  <si>
-    <t>Age class</t>
-  </si>
-  <si>
-    <t>Absol</t>
-  </si>
-  <si>
-    <t>Freq</t>
-  </si>
-  <si>
-    <t>1-3</t>
-  </si>
-  <si>
-    <t>4-9</t>
-  </si>
-  <si>
-    <t>10-14</t>
-  </si>
-  <si>
-    <t>15+</t>
-  </si>
-  <si>
-    <t>Migratory</t>
-  </si>
-  <si>
-    <t>Resident</t>
-  </si>
-  <si>
-    <t>N</t>
+    <t xml:space="preserve">Variable Names</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edge attributes BETA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Destination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transitions pij</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Origin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edge survival sij</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameters to calculate Reproduction r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approx from Middleton et al. 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relative Abundance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Migratory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
   </si>
 </sst>
 </file>
@@ -131,7 +144,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
     <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="D\-MMM"/>
@@ -590,16 +603,15 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C8" activeCellId="1" sqref="A20 C8"/>
+      <selection pane="topRight" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5714285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="24" min="5" style="0" width="8.70918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="17.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="24" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1716,17 +1728,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z26"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="10.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.70918367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1830,13 +1842,15 @@
         <v>0</v>
       </c>
       <c r="E5" s="23" t="n">
-        <v>2172.72225289895</v>
+        <v>2173</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11"/>
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="B6" s="15"/>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
@@ -1866,7 +1880,7 @@
     <row r="7" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="25"/>
       <c r="B7" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
@@ -1876,7 +1890,7 @@
     </row>
     <row r="8" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12" t="n">
@@ -1892,7 +1906,7 @@
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="30" t="n">
         <v>1</v>
@@ -1970,7 +1984,7 @@
     <row r="13" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="25"/>
       <c r="B13" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
@@ -1980,7 +1994,7 @@
     </row>
     <row r="14" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12" t="n">
@@ -1996,7 +2010,7 @@
     </row>
     <row r="15" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="30" t="n">
         <v>1</v>
@@ -2044,90 +2058,17 @@
       </c>
       <c r="F17" s="16"/>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" s="28" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="C22" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="29"/>
-      <c r="B23" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C23" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="35" t="s">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="35" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="4">
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="A21:A23"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2144,17 +2085,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z26"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="10.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.70918367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2293,7 +2234,7 @@
         <v>0.864923076923077</v>
       </c>
       <c r="E5" s="23" t="n">
-        <v>2172.72225289895</v>
+        <v>2173</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -2318,7 +2259,9 @@
       <c r="P5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11"/>
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="B6" s="15"/>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
@@ -2359,7 +2302,7 @@
     <row r="7" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="25"/>
       <c r="B7" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
@@ -2390,7 +2333,7 @@
     </row>
     <row r="8" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12" t="n">
@@ -2426,7 +2369,7 @@
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="30" t="n">
         <v>1</v>
@@ -2542,7 +2485,7 @@
     <row r="13" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="25"/>
       <c r="B13" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
@@ -2571,7 +2514,7 @@
     </row>
     <row r="14" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12" t="n">
@@ -2605,7 +2548,7 @@
     </row>
     <row r="15" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="30" t="n">
         <v>1</v>
@@ -2684,91 +2627,18 @@
       </c>
       <c r="F17" s="16"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" s="28" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="31" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D21" s="31" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E21" s="32" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="C22" s="31" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="31" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E22" s="32" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="29"/>
-      <c r="B23" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C23" s="22" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D23" s="22" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E23" s="33" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="35" t="s">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="35" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="5">
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="A21:A23"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
